--- a/Code/Results/Cases/Case_3_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_237/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.38302502720967</v>
+        <v>12.01780628407291</v>
       </c>
       <c r="C2">
-        <v>7.62546563460066</v>
+        <v>11.59622974356034</v>
       </c>
       <c r="D2">
-        <v>5.08428709660828</v>
+        <v>5.010288421096508</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.10910220719592</v>
+        <v>23.86193444520829</v>
       </c>
       <c r="G2">
-        <v>20.95725939551874</v>
+        <v>28.01021468317829</v>
       </c>
       <c r="H2">
-        <v>8.561898658375243</v>
+        <v>14.16238112059023</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.20362896484408</v>
+        <v>7.983569668974547</v>
       </c>
       <c r="L2">
-        <v>8.096673235005024</v>
+        <v>10.70363282952417</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.07736528281581</v>
+        <v>18.58677497725083</v>
       </c>
       <c r="O2">
-        <v>13.80909574338903</v>
+        <v>21.44664335933064</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.41599428747262</v>
+        <v>11.73860415932579</v>
       </c>
       <c r="C3">
-        <v>7.740565208420739</v>
+        <v>11.63632186442802</v>
       </c>
       <c r="D3">
-        <v>4.888830604108863</v>
+        <v>4.93762201859681</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.81750290616742</v>
+        <v>23.88924901470408</v>
       </c>
       <c r="G3">
-        <v>20.62133066475105</v>
+        <v>28.05597749221388</v>
       </c>
       <c r="H3">
-        <v>8.608125515932226</v>
+        <v>14.20302510177842</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.61413180751945</v>
+        <v>7.78295201998305</v>
       </c>
       <c r="L3">
-        <v>7.809103679643552</v>
+        <v>10.67585856233755</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.25671631055972</v>
+        <v>18.6420438613589</v>
       </c>
       <c r="O3">
-        <v>13.79845034406523</v>
+        <v>21.50898729329739</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.78671332253717</v>
+        <v>11.56586649067068</v>
       </c>
       <c r="C4">
-        <v>7.813368258758246</v>
+        <v>11.66219071995775</v>
       </c>
       <c r="D4">
-        <v>4.764069936327988</v>
+        <v>4.891768889208749</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.65037560858698</v>
+        <v>23.91185150398377</v>
       </c>
       <c r="G4">
-        <v>20.43456688837865</v>
+        <v>28.09228281088726</v>
       </c>
       <c r="H4">
-        <v>8.641284582763877</v>
+        <v>14.23000736311622</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.23425550384231</v>
+        <v>7.658094264360084</v>
       </c>
       <c r="L4">
-        <v>7.631667643338774</v>
+        <v>10.6609215325415</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.36953153178002</v>
+        <v>18.67760148224282</v>
       </c>
       <c r="O4">
-        <v>13.80259620583225</v>
+        <v>21.55142090652961</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.52129729245172</v>
+        <v>11.49525063322107</v>
       </c>
       <c r="C5">
-        <v>7.843580640021649</v>
+        <v>11.67304826482828</v>
       </c>
       <c r="D5">
-        <v>4.712076110089177</v>
+        <v>4.8727832258032</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.58528529401738</v>
+        <v>23.92252713947907</v>
       </c>
       <c r="G5">
-        <v>20.36332243268408</v>
+        <v>28.10913579848449</v>
       </c>
       <c r="H5">
-        <v>8.655961536265558</v>
+        <v>14.241512645278</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.0750230517121</v>
+        <v>7.606865358795231</v>
       </c>
       <c r="L5">
-        <v>7.559252923186434</v>
+        <v>10.65537145869188</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.4161970208453</v>
+        <v>18.69250058826163</v>
       </c>
       <c r="O5">
-        <v>13.80688350353993</v>
+        <v>21.56975621989253</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.47668148878988</v>
+        <v>11.48351453837834</v>
       </c>
       <c r="C6">
-        <v>7.848630518177324</v>
+        <v>11.6748702510059</v>
       </c>
       <c r="D6">
-        <v>4.703374267744455</v>
+        <v>4.869612859102154</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.57465956115898</v>
+        <v>23.92438824710524</v>
       </c>
       <c r="G6">
-        <v>20.35178451785664</v>
+        <v>28.11205836307234</v>
       </c>
       <c r="H6">
-        <v>8.658467913658138</v>
+        <v>14.24345388355409</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.04831768628179</v>
+        <v>7.598340018300691</v>
       </c>
       <c r="L6">
-        <v>7.547225358771195</v>
+        <v>10.65448242657417</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.42398804229794</v>
+        <v>18.69499931504703</v>
       </c>
       <c r="O6">
-        <v>13.80774969482523</v>
+        <v>21.5728637552556</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.78317024674356</v>
+        <v>11.56491490573751</v>
       </c>
       <c r="C7">
-        <v>7.813773497470609</v>
+        <v>11.66233586881889</v>
       </c>
       <c r="D7">
-        <v>4.763373338342458</v>
+        <v>4.891514042947116</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.64948555138794</v>
+        <v>23.91198955013199</v>
       </c>
       <c r="G7">
-        <v>20.43358643673114</v>
+        <v>28.09250177011763</v>
       </c>
       <c r="H7">
-        <v>8.641477854159707</v>
+        <v>14.23016046303424</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.23212586032217</v>
+        <v>7.657404684070535</v>
       </c>
       <c r="L7">
-        <v>7.630691319400593</v>
+        <v>10.66084450266132</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.37015805573685</v>
+        <v>18.677800758899</v>
       </c>
       <c r="O7">
-        <v>13.80264362518932</v>
+        <v>21.55166396063387</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.0569364948506</v>
+        <v>11.92187006833693</v>
       </c>
       <c r="C8">
-        <v>7.664714846206762</v>
+        <v>11.60979418070695</v>
       </c>
       <c r="D8">
-        <v>5.017902664461054</v>
+        <v>4.985495737175433</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.00610031130855</v>
+        <v>23.87014158875996</v>
       </c>
       <c r="G8">
-        <v>20.83736678079712</v>
+        <v>28.0242874301389</v>
       </c>
       <c r="H8">
-        <v>8.576824183897894</v>
+        <v>14.1759746251961</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.00413098364775</v>
+        <v>7.914787853520827</v>
       </c>
       <c r="L8">
-        <v>7.997762552890229</v>
+        <v>10.6936199445697</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.13865592757308</v>
+        <v>18.60549567187356</v>
       </c>
       <c r="O8">
-        <v>13.80315557313243</v>
+        <v>21.46727656906714</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.27510501759252</v>
+        <v>12.60711325431105</v>
       </c>
       <c r="C9">
-        <v>7.388917685074194</v>
+        <v>11.51665300415287</v>
       </c>
       <c r="D9">
-        <v>5.477799381552511</v>
+        <v>5.159544950824628</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.79865147314242</v>
+        <v>23.83438295265411</v>
       </c>
       <c r="G9">
-        <v>21.78468102123827</v>
+        <v>27.95583549672394</v>
       </c>
       <c r="H9">
-        <v>8.489626009125157</v>
+        <v>14.08578988207284</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.37328984265877</v>
+        <v>8.403171293112964</v>
       </c>
       <c r="L9">
-        <v>8.706338683385354</v>
+        <v>10.77445821681179</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.70532735010974</v>
+        <v>18.47652476177111</v>
       </c>
       <c r="O9">
-        <v>13.89275952897839</v>
+        <v>21.33481178964564</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.73731862171678</v>
+        <v>13.09606078108124</v>
       </c>
       <c r="C10">
-        <v>7.195761127486097</v>
+        <v>11.45419368319747</v>
       </c>
       <c r="D10">
-        <v>5.790043013822023</v>
+        <v>5.280606523522687</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.43549083977721</v>
+        <v>23.83635386311323</v>
       </c>
       <c r="G10">
-        <v>22.57537894061171</v>
+        <v>27.94557233770465</v>
       </c>
       <c r="H10">
-        <v>8.452111296964411</v>
+        <v>14.02931975389757</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.28858528491906</v>
+        <v>8.793241573035131</v>
       </c>
       <c r="L10">
-        <v>9.214926876210052</v>
+        <v>10.84361287706236</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.39849372789035</v>
+        <v>18.3895092433621</v>
       </c>
       <c r="O10">
-        <v>14.01767159163647</v>
+        <v>21.25769306734801</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.3668179662795</v>
+        <v>13.31429175211682</v>
       </c>
       <c r="C11">
-        <v>7.10981041830386</v>
+        <v>11.42706331949991</v>
       </c>
       <c r="D11">
-        <v>5.926246441019152</v>
+        <v>5.334090168071288</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.73645468488516</v>
+        <v>23.84337225197233</v>
       </c>
       <c r="G11">
-        <v>22.95534442968368</v>
+        <v>27.94961774137384</v>
       </c>
       <c r="H11">
-        <v>8.441356208560915</v>
+        <v>14.00575335630825</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.68502693251904</v>
+        <v>8.98933286746764</v>
       </c>
       <c r="L11">
-        <v>9.442808350671061</v>
+        <v>10.87711149262621</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.26116896805623</v>
+        <v>18.3515880973649</v>
       </c>
       <c r="O11">
-        <v>14.08834654891605</v>
+        <v>21.22701076504741</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.60011837864519</v>
+        <v>13.39624719309979</v>
       </c>
       <c r="C12">
-        <v>7.077527359909987</v>
+        <v>11.41697326207001</v>
       </c>
       <c r="D12">
-        <v>5.97696548083633</v>
+        <v>5.35410591849111</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.85198703497425</v>
+        <v>23.84690807838353</v>
       </c>
       <c r="G12">
-        <v>23.10210168010278</v>
+        <v>27.95240262728475</v>
       </c>
       <c r="H12">
-        <v>8.438237784047082</v>
+        <v>13.99713439054483</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.83227154800288</v>
+        <v>9.062264005330206</v>
       </c>
       <c r="L12">
-        <v>9.52854095102539</v>
+        <v>10.89008226017226</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.2094713888441</v>
+        <v>18.33746625192564</v>
       </c>
       <c r="O12">
-        <v>14.11717967323178</v>
+        <v>21.21602580309803</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.55009793827368</v>
+        <v>13.37862826117658</v>
       </c>
       <c r="C13">
-        <v>7.084468507417095</v>
+        <v>11.41913818290419</v>
       </c>
       <c r="D13">
-        <v>5.966080662388756</v>
+        <v>5.349805863076343</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.82703640719489</v>
+        <v>23.84610756320216</v>
       </c>
       <c r="G13">
-        <v>23.07036786048464</v>
+        <v>27.9517471399956</v>
       </c>
       <c r="H13">
-        <v>8.438866189933293</v>
+        <v>13.99897706961159</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.80068797011136</v>
+        <v>9.046616365047292</v>
       </c>
       <c r="L13">
-        <v>9.510102727003936</v>
+        <v>10.88727620047962</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.22059218105896</v>
+        <v>18.34049707188583</v>
       </c>
       <c r="O13">
-        <v>14.11087667420602</v>
+        <v>21.21836340773764</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.38611318785228</v>
+        <v>13.32104842316392</v>
       </c>
       <c r="C14">
-        <v>7.107149233751057</v>
+        <v>11.42622952904576</v>
       </c>
       <c r="D14">
-        <v>5.930436423126427</v>
+        <v>5.33574168263182</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.74592857705107</v>
+        <v>23.84364556296767</v>
       </c>
       <c r="G14">
-        <v>22.96736093102856</v>
+        <v>27.94982174886411</v>
       </c>
       <c r="H14">
-        <v>8.441080255339804</v>
+        <v>14.00503815406994</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.6971985884543</v>
+        <v>8.99535967360357</v>
       </c>
       <c r="L14">
-        <v>9.449873184587275</v>
+        <v>10.87817292816082</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.25690979584667</v>
+        <v>18.35042151916035</v>
       </c>
       <c r="O14">
-        <v>14.09067674640262</v>
+        <v>21.22609431804048</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.28500813309373</v>
+        <v>13.28568775169797</v>
       </c>
       <c r="C15">
-        <v>7.121075956108583</v>
+        <v>11.43059707196327</v>
       </c>
       <c r="D15">
-        <v>5.908491028658506</v>
+        <v>5.327095797098244</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.69644969960897</v>
+        <v>23.84225179565627</v>
       </c>
       <c r="G15">
-        <v>22.90463893993428</v>
+        <v>27.94880554271913</v>
       </c>
       <c r="H15">
-        <v>8.442562124798274</v>
+        <v>14.00879047721756</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.63343313108783</v>
+        <v>8.963790083964696</v>
       </c>
       <c r="L15">
-        <v>9.41290612666416</v>
+        <v>10.87263386318616</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.27919440634959</v>
+        <v>18.35653150336011</v>
       </c>
       <c r="O15">
-        <v>14.07857554372909</v>
+        <v>21.2309122897582</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.69546601268208</v>
+        <v>13.08170743609571</v>
       </c>
       <c r="C16">
-        <v>7.201415851444466</v>
+        <v>11.45599245645335</v>
       </c>
       <c r="D16">
-        <v>5.78102264619633</v>
+        <v>5.277078508770029</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.41604402330273</v>
+        <v>23.83601821045743</v>
       </c>
       <c r="G16">
-        <v>22.55095174272437</v>
+        <v>27.94548333017798</v>
       </c>
       <c r="H16">
-        <v>8.452945125390851</v>
+        <v>14.03090257271809</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.26227452590223</v>
+        <v>8.780242932072087</v>
       </c>
       <c r="L16">
-        <v>9.199958856833845</v>
+        <v>10.84146405692499</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.40751192025357</v>
+        <v>18.39202084896212</v>
       </c>
       <c r="O16">
-        <v>14.01333832124749</v>
+        <v>21.25978685440881</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.32470186084127</v>
+        <v>12.95543855774956</v>
       </c>
       <c r="C17">
-        <v>7.251185085281888</v>
+        <v>11.47189963990363</v>
       </c>
       <c r="D17">
-        <v>5.701315282386541</v>
+        <v>5.245981273681365</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.24686937504233</v>
+        <v>23.83376072048202</v>
       </c>
       <c r="G17">
-        <v>22.33914026026003</v>
+        <v>27.94567746558342</v>
       </c>
       <c r="H17">
-        <v>8.46096394548977</v>
+        <v>14.04501112955241</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.02946408614476</v>
+        <v>8.665318099677268</v>
       </c>
       <c r="L17">
-        <v>9.068385243078092</v>
+        <v>10.82285945502147</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.48679428590929</v>
+        <v>18.41421752990809</v>
       </c>
       <c r="O17">
-        <v>13.9769220148988</v>
+        <v>21.2786280962973</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.10808763005769</v>
+        <v>12.88242175445412</v>
       </c>
       <c r="C18">
-        <v>7.279992178396845</v>
+        <v>11.48116981335181</v>
       </c>
       <c r="D18">
-        <v>5.65492113078347</v>
+        <v>5.227946018442115</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.15062809238959</v>
+        <v>23.83303866318253</v>
       </c>
       <c r="G18">
-        <v>22.21922317473062</v>
+        <v>27.94660942654653</v>
       </c>
       <c r="H18">
-        <v>8.466167249811102</v>
+        <v>14.05332574772673</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.89368194804562</v>
+        <v>8.598373106459555</v>
       </c>
       <c r="L18">
-        <v>8.992383239799825</v>
+        <v>10.81235106896726</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.53260894584181</v>
+        <v>18.42714103025942</v>
       </c>
       <c r="O18">
-        <v>13.95727568021728</v>
+        <v>21.28987911111779</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.03416704439989</v>
+        <v>12.85763505081627</v>
       </c>
       <c r="C19">
-        <v>7.289777206567637</v>
+        <v>11.48432930461075</v>
       </c>
       <c r="D19">
-        <v>5.63911927632361</v>
+        <v>5.221814291000153</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.11822679355036</v>
+        <v>23.8328932376821</v>
       </c>
       <c r="G19">
-        <v>22.17895076789809</v>
+        <v>27.94706584367996</v>
       </c>
       <c r="H19">
-        <v>8.468029114321148</v>
+        <v>14.05617524302536</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.84738682075705</v>
+        <v>8.580282828825467</v>
       </c>
       <c r="L19">
-        <v>8.966596584788414</v>
+        <v>10.80882639940742</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.54815827225406</v>
+        <v>18.43154362535751</v>
       </c>
       <c r="O19">
-        <v>13.95084449089774</v>
+        <v>21.29375958523996</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.36451776455547</v>
+        <v>12.96892109327486</v>
       </c>
       <c r="C20">
-        <v>7.245868396091307</v>
+        <v>11.47019379857709</v>
       </c>
       <c r="D20">
-        <v>5.709857190418107</v>
+        <v>5.249307109735241</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.26476863936305</v>
+        <v>23.83394139339513</v>
       </c>
       <c r="G20">
-        <v>22.36149043400371</v>
+        <v>27.94557189864513</v>
       </c>
       <c r="H20">
-        <v>8.46004881765983</v>
+        <v>14.04348857657957</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.05444140591028</v>
+        <v>8.677639577614221</v>
       </c>
       <c r="L20">
-        <v>9.082425520670915</v>
+        <v>10.82482007959903</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.47833258401376</v>
+        <v>18.41183845971465</v>
       </c>
       <c r="O20">
-        <v>13.98066353544411</v>
+        <v>21.27657955472398</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.4344168624968</v>
+        <v>13.33798019201367</v>
       </c>
       <c r="C21">
-        <v>7.100480264019262</v>
+        <v>11.42414165188025</v>
       </c>
       <c r="D21">
-        <v>5.940929425814604</v>
+        <v>5.339879184357097</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.76970991299002</v>
+        <v>23.84434490143032</v>
       </c>
       <c r="G21">
-        <v>22.99753897065801</v>
+        <v>27.9503532841364</v>
       </c>
       <c r="H21">
-        <v>8.440403651425408</v>
+        <v>14.00324958621794</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.72767413764688</v>
+        <v>9.010451193053203</v>
       </c>
       <c r="L21">
-        <v>9.467579728782267</v>
+        <v>10.88083909352988</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.24623433675645</v>
+        <v>18.34750001533617</v>
       </c>
       <c r="O21">
-        <v>14.09655317033576</v>
+        <v>21.22380635375952</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.10408812502682</v>
+        <v>13.57516219715157</v>
       </c>
       <c r="C22">
-        <v>7.006997552058452</v>
+        <v>11.39511382590873</v>
       </c>
       <c r="D22">
-        <v>6.08693956725303</v>
+        <v>5.39768598780613</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.1088083337775</v>
+        <v>23.85626098770997</v>
       </c>
       <c r="G22">
-        <v>23.4299539111951</v>
+        <v>27.96078062971446</v>
       </c>
       <c r="H22">
-        <v>8.433149430480428</v>
+        <v>13.978729514272</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.15088729469726</v>
+        <v>9.220231047808467</v>
       </c>
       <c r="L22">
-        <v>9.716007932309219</v>
+        <v>10.91911138389715</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.09630859734972</v>
+        <v>18.30683831017544</v>
       </c>
       <c r="O22">
-        <v>14.18439311261104</v>
+        <v>21.1930104982215</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.74936016286322</v>
+        <v>13.44896661196857</v>
       </c>
       <c r="C23">
-        <v>7.056754208446586</v>
+        <v>11.410508897059</v>
       </c>
       <c r="D23">
-        <v>6.009474882094346</v>
+        <v>5.366963203321045</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.92701165514131</v>
+        <v>23.84943387472318</v>
       </c>
       <c r="G23">
-        <v>23.19765139620316</v>
+        <v>27.9545475280078</v>
       </c>
       <c r="H23">
-        <v>8.436494292144308</v>
+        <v>13.9916536272647</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.92654859293692</v>
+        <v>9.10898490938345</v>
       </c>
       <c r="L23">
-        <v>9.583736008130131</v>
+        <v>10.89853546366644</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.1761722471106</v>
+        <v>18.32841363293301</v>
       </c>
       <c r="O23">
-        <v>14.13637936325259</v>
+        <v>21.20910843616787</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.34652776611927</v>
+        <v>12.96282695074488</v>
       </c>
       <c r="C24">
-        <v>7.24827146587147</v>
+        <v>11.4709646202557</v>
       </c>
       <c r="D24">
-        <v>5.705997165661253</v>
+        <v>5.247803987714128</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.25667320228585</v>
+        <v>23.83385791743651</v>
       </c>
       <c r="G24">
-        <v>22.35138013574191</v>
+        <v>27.94561707014122</v>
       </c>
       <c r="H24">
-        <v>8.460460702866673</v>
+        <v>14.04417628912995</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.04315518974945</v>
+        <v>8.672071754620852</v>
       </c>
       <c r="L24">
-        <v>9.076079023323016</v>
+        <v>10.82393309614883</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.48215738854636</v>
+        <v>18.41291353160943</v>
       </c>
       <c r="O24">
-        <v>13.9789679822708</v>
+        <v>21.27750439550479</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.70466376069309</v>
+        <v>12.42390557374316</v>
       </c>
       <c r="C25">
-        <v>7.461820656179917</v>
+        <v>11.54079723388359</v>
       </c>
       <c r="D25">
-        <v>5.357781037372249</v>
+        <v>5.11361710918189</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.57447437977802</v>
+        <v>23.83909520359495</v>
       </c>
       <c r="G25">
-        <v>21.51170832264576</v>
+        <v>27.96733508233049</v>
       </c>
       <c r="H25">
-        <v>8.508732970402454</v>
+        <v>14.1084675138716</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.01868528112415</v>
+        <v>8.273206052238745</v>
       </c>
       <c r="L25">
-        <v>8.516424234146101</v>
+        <v>10.75084860471718</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.82045003210934</v>
+        <v>18.51005027751868</v>
       </c>
       <c r="O25">
-        <v>13.85849981018827</v>
+        <v>21.36710412331245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_237/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.01780628407291</v>
+        <v>14.38302502720964</v>
       </c>
       <c r="C2">
-        <v>11.59622974356034</v>
+        <v>7.625465634600795</v>
       </c>
       <c r="D2">
-        <v>5.010288421096508</v>
+        <v>5.084287096608543</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.86193444520829</v>
+        <v>17.10910220719575</v>
       </c>
       <c r="G2">
-        <v>28.01021468317829</v>
+        <v>20.95725939551867</v>
       </c>
       <c r="H2">
-        <v>14.16238112059023</v>
+        <v>8.561898658375231</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.983569668974547</v>
+        <v>11.20362896484406</v>
       </c>
       <c r="L2">
-        <v>10.70363282952417</v>
+        <v>8.096673235004998</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.58677497725083</v>
+        <v>12.07736528281575</v>
       </c>
       <c r="O2">
-        <v>21.44664335933064</v>
+        <v>13.80909574338893</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.73860415932579</v>
+        <v>13.41599428747259</v>
       </c>
       <c r="C3">
-        <v>11.63632186442802</v>
+        <v>7.740565208420737</v>
       </c>
       <c r="D3">
-        <v>4.93762201859681</v>
+        <v>4.888830604108914</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.88924901470408</v>
+        <v>16.81750290616737</v>
       </c>
       <c r="G3">
-        <v>28.05597749221388</v>
+        <v>20.62133066475097</v>
       </c>
       <c r="H3">
-        <v>14.20302510177842</v>
+        <v>8.60812551593218</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.78295201998305</v>
+        <v>10.61413180751946</v>
       </c>
       <c r="L3">
-        <v>10.67585856233755</v>
+        <v>7.809103679643544</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.6420438613589</v>
+        <v>12.25671631055969</v>
       </c>
       <c r="O3">
-        <v>21.50898729329739</v>
+        <v>13.79845034406516</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.56586649067068</v>
+        <v>12.78671332253716</v>
       </c>
       <c r="C4">
-        <v>11.66219071995775</v>
+        <v>7.813368258758381</v>
       </c>
       <c r="D4">
-        <v>4.891768889208749</v>
+        <v>4.764069936327881</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.91185150398377</v>
+        <v>16.65037560858698</v>
       </c>
       <c r="G4">
-        <v>28.09228281088726</v>
+        <v>20.43456688837858</v>
       </c>
       <c r="H4">
-        <v>14.23000736311622</v>
+        <v>8.641284582763872</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.658094264360084</v>
+        <v>10.23425550384235</v>
       </c>
       <c r="L4">
-        <v>10.6609215325415</v>
+        <v>7.63166764333875</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.67760148224282</v>
+        <v>12.36953153178002</v>
       </c>
       <c r="O4">
-        <v>21.55142090652961</v>
+        <v>13.80259620583222</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.49525063322107</v>
+        <v>12.52129729245174</v>
       </c>
       <c r="C5">
-        <v>11.67304826482828</v>
+        <v>7.843580640021515</v>
       </c>
       <c r="D5">
-        <v>4.8727832258032</v>
+        <v>4.712076110089288</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.92252713947907</v>
+        <v>16.58528529401735</v>
       </c>
       <c r="G5">
-        <v>28.10913579848449</v>
+        <v>20.36332243268421</v>
       </c>
       <c r="H5">
-        <v>14.241512645278</v>
+        <v>8.655961536265492</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.606865358795231</v>
+        <v>10.07502305171207</v>
       </c>
       <c r="L5">
-        <v>10.65537145869188</v>
+        <v>7.559252923186429</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.69250058826163</v>
+        <v>12.41619702084527</v>
       </c>
       <c r="O5">
-        <v>21.56975621989253</v>
+        <v>13.80688350353994</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.48351453837834</v>
+        <v>12.47668148878992</v>
       </c>
       <c r="C6">
-        <v>11.6748702510059</v>
+        <v>7.848630518177595</v>
       </c>
       <c r="D6">
-        <v>4.869612859102154</v>
+        <v>4.703374267744512</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.92438824710524</v>
+        <v>16.57465956115896</v>
       </c>
       <c r="G6">
-        <v>28.11205836307234</v>
+        <v>20.3517845178566</v>
       </c>
       <c r="H6">
-        <v>14.24345388355409</v>
+        <v>8.658467913658138</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.598340018300691</v>
+        <v>10.04831768628186</v>
       </c>
       <c r="L6">
-        <v>10.65448242657417</v>
+        <v>7.547225358771207</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.69499931504703</v>
+        <v>12.423988042298</v>
       </c>
       <c r="O6">
-        <v>21.5728637552556</v>
+        <v>13.80774969482522</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.56491490573751</v>
+        <v>12.78317024674354</v>
       </c>
       <c r="C7">
-        <v>11.66233586881889</v>
+        <v>7.813773497470744</v>
       </c>
       <c r="D7">
-        <v>4.891514042947116</v>
+        <v>4.763373338342665</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.91198955013199</v>
+        <v>16.64948555138785</v>
       </c>
       <c r="G7">
-        <v>28.09250177011763</v>
+        <v>20.43358643673116</v>
       </c>
       <c r="H7">
-        <v>14.23016046303424</v>
+        <v>8.641477854159698</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.657404684070535</v>
+        <v>10.23212586032216</v>
       </c>
       <c r="L7">
-        <v>10.66084450266132</v>
+        <v>7.630691319400543</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.677800758899</v>
+        <v>12.37015805573685</v>
       </c>
       <c r="O7">
-        <v>21.55166396063387</v>
+        <v>13.80264362518932</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.92187006833693</v>
+        <v>14.0569364948506</v>
       </c>
       <c r="C8">
-        <v>11.60979418070695</v>
+        <v>7.664714846206895</v>
       </c>
       <c r="D8">
-        <v>4.985495737175433</v>
+        <v>5.017902664461064</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.87014158875996</v>
+        <v>17.00610031130871</v>
       </c>
       <c r="G8">
-        <v>28.0242874301389</v>
+        <v>20.83736678079729</v>
       </c>
       <c r="H8">
-        <v>14.1759746251961</v>
+        <v>8.576824183897948</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.914787853520827</v>
+        <v>11.00413098364774</v>
       </c>
       <c r="L8">
-        <v>10.6936199445697</v>
+        <v>7.997762552890222</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.60549567187356</v>
+        <v>12.13865592757318</v>
       </c>
       <c r="O8">
-        <v>21.46727656906714</v>
+        <v>13.80315557313255</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.60711325431105</v>
+        <v>16.27510501759257</v>
       </c>
       <c r="C9">
-        <v>11.51665300415287</v>
+        <v>7.388917685074197</v>
       </c>
       <c r="D9">
-        <v>5.159544950824628</v>
+        <v>5.47779938155246</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.83438295265411</v>
+        <v>17.79865147314238</v>
       </c>
       <c r="G9">
-        <v>27.95583549672394</v>
+        <v>21.78468102123815</v>
       </c>
       <c r="H9">
-        <v>14.08578988207284</v>
+        <v>8.489626009125153</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.403171293112964</v>
+        <v>12.37328984265884</v>
       </c>
       <c r="L9">
-        <v>10.77445821681179</v>
+        <v>8.706338683385367</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.47652476177111</v>
+        <v>11.70532735010974</v>
       </c>
       <c r="O9">
-        <v>21.33481178964564</v>
+        <v>13.89275952897832</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.09606078108124</v>
+        <v>17.73731862171683</v>
       </c>
       <c r="C10">
-        <v>11.45419368319747</v>
+        <v>7.1957611274861</v>
       </c>
       <c r="D10">
-        <v>5.280606523522687</v>
+        <v>5.790043013822066</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.83635386311323</v>
+        <v>18.43549083977706</v>
       </c>
       <c r="G10">
-        <v>27.94557233770465</v>
+        <v>22.57537894061155</v>
       </c>
       <c r="H10">
-        <v>14.02931975389757</v>
+        <v>8.452111296964357</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.793241573035131</v>
+        <v>13.28858528491914</v>
       </c>
       <c r="L10">
-        <v>10.84361287706236</v>
+        <v>9.214926876210081</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.3895092433621</v>
+        <v>11.39849372789028</v>
       </c>
       <c r="O10">
-        <v>21.25769306734801</v>
+        <v>14.01767159163634</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.31429175211682</v>
+        <v>18.36681796627954</v>
       </c>
       <c r="C11">
-        <v>11.42706331949991</v>
+        <v>7.109810418303991</v>
       </c>
       <c r="D11">
-        <v>5.334090168071288</v>
+        <v>5.926246441019208</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.84337225197233</v>
+        <v>18.7364546848851</v>
       </c>
       <c r="G11">
-        <v>27.94961774137384</v>
+        <v>22.95534442968364</v>
       </c>
       <c r="H11">
-        <v>14.00575335630825</v>
+        <v>8.441356208560871</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.98933286746764</v>
+        <v>13.68502693251909</v>
       </c>
       <c r="L11">
-        <v>10.87711149262621</v>
+        <v>9.442808350671068</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.3515880973649</v>
+        <v>11.26116896805619</v>
       </c>
       <c r="O11">
-        <v>21.22701076504741</v>
+        <v>14.08834654891598</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.39624719309979</v>
+        <v>18.60011837864521</v>
       </c>
       <c r="C12">
-        <v>11.41697326207001</v>
+        <v>7.077527359910121</v>
       </c>
       <c r="D12">
-        <v>5.35410591849111</v>
+        <v>5.976965480836195</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.84690807838353</v>
+        <v>18.85198703497431</v>
       </c>
       <c r="G12">
-        <v>27.95240262728475</v>
+        <v>23.10210168010267</v>
       </c>
       <c r="H12">
-        <v>13.99713439054483</v>
+        <v>8.438237784047004</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.062264005330206</v>
+        <v>13.83227154800294</v>
       </c>
       <c r="L12">
-        <v>10.89008226017226</v>
+        <v>9.528540951025356</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.33746625192564</v>
+        <v>11.20947138884406</v>
       </c>
       <c r="O12">
-        <v>21.21602580309803</v>
+        <v>14.11717967323172</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.37862826117658</v>
+        <v>18.55009793827375</v>
       </c>
       <c r="C13">
-        <v>11.41913818290419</v>
+        <v>7.084468507417096</v>
       </c>
       <c r="D13">
-        <v>5.349805863076343</v>
+        <v>5.966080662388702</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.84610756320216</v>
+        <v>18.82703640719487</v>
       </c>
       <c r="G13">
-        <v>27.9517471399956</v>
+        <v>23.07036786048461</v>
       </c>
       <c r="H13">
-        <v>13.99897706961159</v>
+        <v>8.43886618993325</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.046616365047292</v>
+        <v>13.80068797011143</v>
       </c>
       <c r="L13">
-        <v>10.88727620047962</v>
+        <v>9.510102727003938</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.34049707188583</v>
+        <v>11.22059218105896</v>
       </c>
       <c r="O13">
-        <v>21.21836340773764</v>
+        <v>14.11087667420595</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.32104842316392</v>
+        <v>18.38611318785229</v>
       </c>
       <c r="C14">
-        <v>11.42622952904576</v>
+        <v>7.107149233750923</v>
       </c>
       <c r="D14">
-        <v>5.33574168263182</v>
+        <v>5.930436423126439</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.84364556296767</v>
+        <v>18.745928577051</v>
       </c>
       <c r="G14">
-        <v>27.94982174886411</v>
+        <v>22.96736093102836</v>
       </c>
       <c r="H14">
-        <v>14.00503815406994</v>
+        <v>8.441080255339742</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.99535967360357</v>
+        <v>13.69719858845431</v>
       </c>
       <c r="L14">
-        <v>10.87817292816082</v>
+        <v>9.449873184587281</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.35042151916035</v>
+        <v>11.25690979584663</v>
       </c>
       <c r="O14">
-        <v>21.22609431804048</v>
+        <v>14.09067674640254</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.28568775169797</v>
+        <v>18.28500813309373</v>
       </c>
       <c r="C15">
-        <v>11.43059707196327</v>
+        <v>7.121075956108582</v>
       </c>
       <c r="D15">
-        <v>5.327095797098244</v>
+        <v>5.908491028658584</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.84225179565627</v>
+        <v>18.69644969960896</v>
       </c>
       <c r="G15">
-        <v>27.94880554271913</v>
+        <v>22.90463893993433</v>
       </c>
       <c r="H15">
-        <v>14.00879047721756</v>
+        <v>8.442562124798233</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.963790083964696</v>
+        <v>13.63343313108783</v>
       </c>
       <c r="L15">
-        <v>10.87263386318616</v>
+        <v>9.412906126664167</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.35653150336011</v>
+        <v>11.27919440634959</v>
       </c>
       <c r="O15">
-        <v>21.2309122897582</v>
+        <v>14.0785755437291</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.08170743609571</v>
+        <v>17.69546601268208</v>
       </c>
       <c r="C16">
-        <v>11.45599245645335</v>
+        <v>7.201415851444602</v>
       </c>
       <c r="D16">
-        <v>5.277078508770029</v>
+        <v>5.781022646196314</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.83601821045743</v>
+        <v>18.41604402330263</v>
       </c>
       <c r="G16">
-        <v>27.94548333017798</v>
+        <v>22.55095174272431</v>
       </c>
       <c r="H16">
-        <v>14.03090257271809</v>
+        <v>8.452945125390787</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.780242932072087</v>
+        <v>13.26227452590228</v>
       </c>
       <c r="L16">
-        <v>10.84146405692499</v>
+        <v>9.199958856833838</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.39202084896212</v>
+        <v>11.40751192025347</v>
       </c>
       <c r="O16">
-        <v>21.25978685440881</v>
+        <v>14.01333832124742</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.95543855774956</v>
+        <v>17.3247018608413</v>
       </c>
       <c r="C17">
-        <v>11.47189963990363</v>
+        <v>7.251185085281618</v>
       </c>
       <c r="D17">
-        <v>5.245981273681365</v>
+        <v>5.701315282386496</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.83376072048202</v>
+        <v>18.2468693750423</v>
       </c>
       <c r="G17">
-        <v>27.94567746558342</v>
+        <v>22.33914026026001</v>
       </c>
       <c r="H17">
-        <v>14.04501112955241</v>
+        <v>8.460963945489775</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.665318099677268</v>
+        <v>13.02946408614473</v>
       </c>
       <c r="L17">
-        <v>10.82285945502147</v>
+        <v>9.068385243078088</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.41421752990809</v>
+        <v>11.48679428590926</v>
       </c>
       <c r="O17">
-        <v>21.2786280962973</v>
+        <v>13.97692201489877</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.88242175445412</v>
+        <v>17.10808763005771</v>
       </c>
       <c r="C18">
-        <v>11.48116981335181</v>
+        <v>7.279992178396981</v>
       </c>
       <c r="D18">
-        <v>5.227946018442115</v>
+        <v>5.654921130783507</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.83303866318253</v>
+        <v>18.15062809238938</v>
       </c>
       <c r="G18">
-        <v>27.94660942654653</v>
+        <v>22.21922317473032</v>
       </c>
       <c r="H18">
-        <v>14.05332574772673</v>
+        <v>8.466167249811091</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.598373106459555</v>
+        <v>12.89368194804568</v>
       </c>
       <c r="L18">
-        <v>10.81235106896726</v>
+        <v>8.992383239799812</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.42714103025942</v>
+        <v>11.53260894584175</v>
       </c>
       <c r="O18">
-        <v>21.28987911111779</v>
+        <v>13.95727568021714</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.85763505081627</v>
+        <v>17.03416704439987</v>
       </c>
       <c r="C19">
-        <v>11.48432930461075</v>
+        <v>7.289777206567773</v>
       </c>
       <c r="D19">
-        <v>5.221814291000153</v>
+        <v>5.639119276323521</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.8328932376821</v>
+        <v>18.11822679355037</v>
       </c>
       <c r="G19">
-        <v>27.94706584367996</v>
+        <v>22.17895076789805</v>
       </c>
       <c r="H19">
-        <v>14.05617524302536</v>
+        <v>8.468029114321148</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.580282828825467</v>
+        <v>12.84738682075705</v>
       </c>
       <c r="L19">
-        <v>10.80882639940742</v>
+        <v>8.966596584788405</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.43154362535751</v>
+        <v>11.54815827225406</v>
       </c>
       <c r="O19">
-        <v>21.29375958523996</v>
+        <v>13.95084449089773</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.96892109327486</v>
+        <v>17.3645177645555</v>
       </c>
       <c r="C20">
-        <v>11.47019379857709</v>
+        <v>7.245868396091174</v>
       </c>
       <c r="D20">
-        <v>5.249307109735241</v>
+        <v>5.70985719041817</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.83394139339513</v>
+        <v>18.26476863936306</v>
       </c>
       <c r="G20">
-        <v>27.94557189864513</v>
+        <v>22.36149043400384</v>
       </c>
       <c r="H20">
-        <v>14.04348857657957</v>
+        <v>8.460048817659835</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.677639577614221</v>
+        <v>13.05444140591031</v>
       </c>
       <c r="L20">
-        <v>10.82482007959903</v>
+        <v>9.082425520670911</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.41183845971465</v>
+        <v>11.47833258401379</v>
       </c>
       <c r="O20">
-        <v>21.27657955472398</v>
+        <v>13.98066353544413</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.33798019201367</v>
+        <v>18.43441686249682</v>
       </c>
       <c r="C21">
-        <v>11.42414165188025</v>
+        <v>7.100480264019263</v>
       </c>
       <c r="D21">
-        <v>5.339879184357097</v>
+        <v>5.940929425814668</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.84434490143032</v>
+        <v>18.76970991298993</v>
       </c>
       <c r="G21">
-        <v>27.9503532841364</v>
+        <v>22.99753897065785</v>
       </c>
       <c r="H21">
-        <v>14.00324958621794</v>
+        <v>8.44040365142531</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.010451193053203</v>
+        <v>13.72767413764693</v>
       </c>
       <c r="L21">
-        <v>10.88083909352988</v>
+        <v>9.467579728782281</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.34750001533617</v>
+        <v>11.24623433675642</v>
       </c>
       <c r="O21">
-        <v>21.22380635375952</v>
+        <v>14.09655317033569</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.57516219715157</v>
+        <v>19.10408812502675</v>
       </c>
       <c r="C22">
-        <v>11.39511382590873</v>
+        <v>7.006997552058318</v>
       </c>
       <c r="D22">
-        <v>5.39768598780613</v>
+        <v>6.086939567253157</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.85626098770997</v>
+        <v>19.10880833377751</v>
       </c>
       <c r="G22">
-        <v>27.96078062971446</v>
+        <v>23.4299539111952</v>
       </c>
       <c r="H22">
-        <v>13.978729514272</v>
+        <v>8.433149430480508</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.220231047808467</v>
+        <v>14.1508872946972</v>
       </c>
       <c r="L22">
-        <v>10.91911138389715</v>
+        <v>9.716007932309198</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.30683831017544</v>
+        <v>11.09630859734979</v>
       </c>
       <c r="O22">
-        <v>21.1930104982215</v>
+        <v>14.18439311261116</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.44896661196857</v>
+        <v>18.74936016286324</v>
       </c>
       <c r="C23">
-        <v>11.410508897059</v>
+        <v>7.056754208446452</v>
       </c>
       <c r="D23">
-        <v>5.366963203321045</v>
+        <v>6.009474882094415</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.84943387472318</v>
+        <v>18.92701165514126</v>
       </c>
       <c r="G23">
-        <v>27.9545475280078</v>
+        <v>23.19765139620322</v>
       </c>
       <c r="H23">
-        <v>13.9916536272647</v>
+        <v>8.436494292144262</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.10898490938345</v>
+        <v>13.92654859293691</v>
       </c>
       <c r="L23">
-        <v>10.89853546366644</v>
+        <v>9.583736008130126</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.32841363293301</v>
+        <v>11.17617224711059</v>
       </c>
       <c r="O23">
-        <v>21.20910843616787</v>
+        <v>14.13637936325259</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.96282695074488</v>
+        <v>17.34652776611924</v>
       </c>
       <c r="C24">
-        <v>11.4709646202557</v>
+        <v>7.248271465871335</v>
       </c>
       <c r="D24">
-        <v>5.247803987714128</v>
+        <v>5.705997165661316</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.83385791743651</v>
+        <v>18.25667320228587</v>
       </c>
       <c r="G24">
-        <v>27.94561707014122</v>
+        <v>22.35138013574197</v>
       </c>
       <c r="H24">
-        <v>14.04417628912995</v>
+        <v>8.460460702866706</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.672071754620852</v>
+        <v>13.04315518974944</v>
       </c>
       <c r="L24">
-        <v>10.82393309614883</v>
+        <v>9.076079023323034</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.41291353160943</v>
+        <v>11.48215738854642</v>
       </c>
       <c r="O24">
-        <v>21.27750439550479</v>
+        <v>13.97896798227086</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.42390557374316</v>
+        <v>15.7046637606931</v>
       </c>
       <c r="C25">
-        <v>11.54079723388359</v>
+        <v>7.461820656179917</v>
       </c>
       <c r="D25">
-        <v>5.11361710918189</v>
+        <v>5.357781037372393</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.83909520359495</v>
+        <v>17.57447437977795</v>
       </c>
       <c r="G25">
-        <v>27.96733508233049</v>
+        <v>21.51170832264586</v>
       </c>
       <c r="H25">
-        <v>14.1084675138716</v>
+        <v>8.508732970402406</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.273206052238745</v>
+        <v>12.01868528112415</v>
       </c>
       <c r="L25">
-        <v>10.75084860471718</v>
+        <v>8.516424234146116</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.51005027751868</v>
+        <v>11.82045003210934</v>
       </c>
       <c r="O25">
-        <v>21.36710412331245</v>
+        <v>13.85849981018827</v>
       </c>
     </row>
   </sheetData>
